--- a/biology/Botanique/New_Zealand_Journal_of_Botany/New_Zealand_Journal_of_Botany.xlsx
+++ b/biology/Botanique/New_Zealand_Journal_of_Botany/New_Zealand_Journal_of_Botany.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La New Zealand Journal of Botany (« Journal de botanique de Nouvelle-Zélande ») est une revue trimestrielle fondée en 1963.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier numéro de la revue paraît en mars 1963[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier numéro de la revue paraît en mars 1963.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Administration et ligne éditoriale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le New Zealand Journal of Botany est une revue scientifique à comité de lecture. Les sujets qu'elle publie portent sur la botanique, mais aussi la mycologie et la phycologie. L'aire d'étude comprend bien évidemment la Nouvelle-Zélande, mais aussi l'Australie, l'Afrique australe, l'Amérique du Sud et de manière plus générale l'Hémisphère sud[2],[3].
-En 2022, le rédacteur en chef est Christopher Lusk[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le New Zealand Journal of Botany est une revue scientifique à comité de lecture. Les sujets qu'elle publie portent sur la botanique, mais aussi la mycologie et la phycologie. L'aire d'étude comprend bien évidemment la Nouvelle-Zélande, mais aussi l'Australie, l'Afrique australe, l'Amérique du Sud et de manière plus générale l'Hémisphère sud,.
+En 2022, le rédacteur en chef est Christopher Lusk.
 </t>
         </is>
       </c>
